--- a/Modules/Module 2/MGEBUG1.8/MGEBUG1.8.2 - V.1.xlsx
+++ b/Modules/Module 2/MGEBUG1.8/MGEBUG1.8.2 - V.1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC8741-4C7E-4630-BD5E-BE4DAFB9F125}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="4170" windowWidth="20580" windowHeight="3975"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BUG - CR" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
@@ -134,12 +135,39 @@
   </si>
   <si>
     <t>Enter UserName: admin, Password: admin - Admin Operation</t>
+  </si>
+  <si>
+    <t>class JdbdcSubCategoryDao</t>
+  </si>
+  <si>
+    <t>deleteSubCategory</t>
+  </si>
+  <si>
+    <t>class JdbcSubCategoryDao/Modified</t>
+  </si>
+  <si>
+    <t>deleteSubCategory / modified</t>
+  </si>
+  <si>
+    <t>deleteSubCategory/modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change the delete query </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I changed the delete query. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can now delete a subcategory. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,9 +585,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -602,6 +627,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,26 +717,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -647,98 +762,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +806,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -807,7 +844,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Mindtree_Logo (1).png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Mindtree_Logo (1).png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -845,7 +888,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Title 1"/>
+        <xdr:cNvPr id="5" name="Title 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noGrp="1"/>
         </xdr:cNvSpPr>
@@ -972,6 +1021,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1007,6 +1073,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1182,10 +1265,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:F52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1238,15 +1323,15 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1254,12 +1339,12 @@
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,12 +1352,12 @@
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1280,12 +1365,12 @@
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1293,12 +1378,12 @@
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1312,26 +1397,26 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1339,12 +1424,12 @@
       <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,12 +1437,12 @@
       <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,23 +1450,23 @@
       <c r="B15" s="8">
         <v>3</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>4</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1395,13 +1480,13 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1412,11 +1497,11 @@
       <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,10 +1509,14 @@
       <c r="B20" s="11">
         <v>1</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,10 +1524,10 @@
       <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1446,18 +1535,18 @@
       <c r="B22" s="8">
         <v>3</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>4</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
       <c r="F23" s="37"/>
@@ -1480,30 +1569,34 @@
       <c r="C25" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
+      <c r="C26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>2</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="37"/>
@@ -1526,73 +1619,73 @@
       <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>1</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="30">
+      <c r="B31" s="29">
         <v>2</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1606,13 +1699,13 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1636,69 +1729,79 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="71"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1712,73 +1815,77 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="77"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="46"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="73"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="73"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="73"/>
+      <c r="C51" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="42"/>
+      <c r="C52" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="36"/>
@@ -1789,31 +1896,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:F44"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
@@ -1830,6 +1912,31 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:F44"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
